--- a/国策/人类村落.xlsx
+++ b/国策/人类村落.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5539DE2D-503E-400E-A999-F7E2BFF164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D09DCA9-9B46-47DE-95F2-75EA0D2E132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{93DAB45E-748C-48FC-94D4-11F23570B30F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <r>
       <t>风萧萧{30天}{触发事件：</t>
@@ -744,7 +744,7 @@
   </si>
   <si>
     <r>
-      <t>*再走前路{60天}{获得</t>
+      <t>* 重走旧路{60天}{获得</t>
     </r>
     <r>
       <rPr>
@@ -816,7 +816,7 @@
   </si>
   <si>
     <r>
-      <t>*打破权威{60天}{稗田阿礼成为稗田人类复权派的领导人，开启内战决议绕过九十九工业的制裁，以</t>
+      <t>*再寻新路{60天}{稗田阿礼成为稗田人类复权派的领导人，开启内战决议绕过九十九工业的制裁，以</t>
     </r>
     <r>
       <rPr>
@@ -866,6 +866,212 @@
   </si>
   <si>
     <r>
+      <t>尽诛叛逆{55天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（部队核心领土进攻：+10%，部队核心领土防御：+10%）}{流亡过后有些流亡者忘记了自己的根，我们不得不得让他们回忆一下}（注：需要有流亡者不同意号召）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人类之力{55天}{开启决议获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>庙算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{五分的典籍重新归一，是时候让他们见识一下人类之力了}（注：需要雾雨流亡者、竹林流亡者、草原流亡者、人类财阀联合不存在或是我们的合作势力）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>草原流亡者{55天}{人类村落向草原流亡者宣战，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草原流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：+10%}{他们真以为自己懂我们吗}（注：需要草原流亡者不同意号召）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>竹林流亡者{55天}{人类村落向竹林流亡者宣战，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竹林流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：+10%}{改良主义者是人类的叛徒}（注：需要竹林流亡者不同意号召）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>雾雨流亡者{55天}{人类村落向雾雨流亡者宣战，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨逆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雾雨流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：+10%}{种族主义者的确难以规训}（注：需要雾雨流亡者不同意号召）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>万众一心{55天}{（</t>
     </r>
     <r>
@@ -1029,30 +1235,1669 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，其效果为（部队攻击：+25%，部队防御：+25%）}{人类复权运动卷土重来，是流亡者们履行承诺的时候了}（注：需要意识形态为激进，如果流亡者没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>威震一方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他们不会同意）</t>
-    </r>
+      <t>，其效果为（部队攻击：+25%，部队防御：+25%）}{人类复权运动卷土重来，是流亡者们履行承诺的时候了}（注：需要意识形态为激进，如果流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外交中立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会被直接吞并）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>躬匠精神{60天}{稳定度：-5%，所有国家：获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>躬匠精神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系改变了+200）}{人类犯下的滔天罪行必须通过忏悔来赎罪}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建造道观{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神灵庙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神灵庙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（联合县）添加1建筑位，添加1民用工厂，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信徒修炼课程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（生活消费品工厂：-6%）}{我们邀请道教徒重回人类村落}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人才回流{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神明信仰联盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神明信仰联盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），增加1个科研槽，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工程技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（民用类研究速度：+10%）}{一些人类移民去了”西人类村落“我们可以利用一些方法让其中一部分回来}（注：需要神明信仰联盟意识形态为改良）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建造佛展{60天]{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命莲寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命莲寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（联合县）添加1建筑位，添加1民用工厂，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涅槃大佛展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（每日政治点数增长：+0.2，生活消费品工厂：-5%}{我们邀请佛教徒重回人类村落}（注：需要命莲寺没有内战）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>道具回归{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）完成国策：合作军工项目}{还是有道具喜欢人类的，可以让他们继续和谐相处了}（注：需要九十九工业意识形态不为新规）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>政治支持{60天}{政治点数：-100，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（叛乱同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叛乱同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叛乱同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>政治危机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：稳定度：+15%，所有拥有的地区：添加1基础设施，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>永不放弃的进步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（建造速度：+10%）}{我们可以支持鬼人正邪的统治，她现在已经饥不择食了}（注：需要鬼人正邪的政权还没有被颠覆）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贡献血液{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斯卡雷特帝国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斯卡雷特帝国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斯卡雷特帝国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）完成国策：加大和人类村落的合作，跳过国策：在人类村落建立影子政府、正当化控制人类}{吸血鬼需要血液，人类需要和平，并没有什么矛盾}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同修神社{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>博丽神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>博丽神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>博丽神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）完成国策：修缮博丽神社，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>博丽的狂热信徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（适役人口：+9%）}（注：需要博丽神社没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖怪巫女的传言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖怪巫女！！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>认同守矢{60天}{政治点数：-100，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>守矢神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈的战略同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>守矢神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+100），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>守矢神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）移除神明的危机，获得无为而治，其效果为（每周人口：+1，每月人口：+15%），增加2个地图外民用工厂}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>欢迎媒体{100天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绥靖政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：每日政治点数增长：+0.35，科研速度：+10%}{我们欢迎天狗的媒体，即使有意识形态输出也不会比现在更差不是吗}（注：需要完成国策：认同守矢、同修神社）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>佛道同盟{100天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绥靖政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：每日政治点数增长：+0.1，科研速度：+25%}{我们重新撮合神道同盟，虽然没有军事上的好处，但其他方面却是一个不落}（注：需要完成国策：建造佛展，建造道观）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四海皆友{100天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绥靖政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：政治点数：+25%，每周稳定度：+0.1%，稳定度：+40%，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）完成国策：物归原主}{幻想乡任何地方都会有人类的身影，无论他们卑贱或高贵}（注：需要完成国策：人才回流、道具回归）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>沟通贤者{100天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绥靖政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：地方最大工业值：+30%，生活消费品：-10%，建造速度：+25%，工厂产出：+25%}{贤者的职责是守护幻想乡的和平，而人类似乎也在进行这种职责}（注：需要完成国策贡献血液、政治支持）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>努力的结果{60天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幻想乡正统势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（政治点数：+20%，部队组织度：+10%，制造战争的紧张度限制：+20%，正当化战争目标所需时间：+25%）}{我们得到了幻想乡的认可，虽然不知道认可的是人类还是慧音}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限的扩张{60天}{开启决议通过民用工厂换取核心省份}{我们可以通过赎买让曾经的土地回归怀抱}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限的投资{60天}{开启决议使用政治点数获得建筑位和民用工厂}{我们可以通过外交努力（慧音）换取源源不断的经济发展空间}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,40 +3309,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EBBA38-6A18-44E7-91CA-5981279DC2EF}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>3</v>
       </c>
@@ -1522,9 +3447,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/国策/人类村落.xlsx
+++ b/国策/人类村落.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\documents\GitHub\FocusTree\国策\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42C6F2-A726-4890-B5B1-2E8D733B153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE826BC-F9D2-43D9-B52C-208417B38ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{93DAB45E-748C-48FC-94D4-11F23570B30F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <r>
       <t>风萧萧{30天}{触发事件：</t>
@@ -3674,6 +3674,834 @@
         <scheme val="minor"/>
       </rPr>
       <t>追加效果：每周人力：+10，政治点数：+10%，部队防御：-10%，每日人类影响力额外变化：+0.08）}{我们摆脱了妖怪的妖怪的控制，但是这一切真的值得吗？}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>纵横捭阖{60天}{战争支持度：-10%，通过（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竹林妖怪联盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命莲寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的保障独立，通过和（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竹林妖怪联盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命莲寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的互不侵犯条约}{我们知道九十九工业居心叵测之后需要争取更多同情者的支持}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>火攻五道{60天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>庙算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（所有敌国：每周人力：-100，工厂产出：-20%，部队组织度：-10%，部队损耗：+30%，部队速度：-10%）}{火攻有五：一曰火人，二曰火积，三曰火辎，四曰火库，五曰火队}（注：可以用事件达到效果）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱敌来攻{60天}{稳定度：-10%，九十九工业对人类村落宣战}{善战者，致人而不致于人}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*外交权谋{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>向开放社会发展一级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开放社会2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开放社会1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，效果变化：科研速度：+3%，加密：-0.2，可出口资源：+5%，顺从度增长速度：+5%，合作势力花费：-5%，改良支持度变化：+5%，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天狗共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）政治点数：+150，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寻求外援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+250），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寻求外援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天狗共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+250）}{在意识形态方向天狗共和国是我们毋庸置疑的领头人}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*武库兵法{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>向鹰派发展一级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸽派</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4取代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸽派5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，效果变化：生活消费品工厂：+2%，战争支持度：+5%，改善关系持续花费：+10%，地区最大工业值：-10%，贸易协定关系修正：-20%，正当化战争目标时间：-10%，敌国对我国正当化战争目标时间：-20%}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用间五器{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>庙算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：所有敌国：战争支持度：-10%，加密：-10，解密：-10，指挥点数每日增长乘数：-20%，厌战上涨周期：-50%）}{用间有五：有因间，有内间，有反间，有死间，有生间}（注：可以用事件达到效果）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>先发制人{60天}{政治点数：-100，人类村落向九十九工业宣战，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>托古改制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：+20%}{付丧神迟早会发现我们的真实意图，不如先下手为强}（注：需要完成国策：火攻五道、用间五器、托古改制）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>托古改制{60天}{移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道具的保护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绥靖政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>托古改制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（生活消费品：-20%，地区最大工业值：-20%），九十九工业触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“利益受损”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。}{我们在内部大肆宣扬结界危机之前幻想乡的和谐，构建一个曾经也没有可能的理想乡，目的是迁徙北工业区同时发展农业机械以脱离付丧神的“保护”}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收回道具{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>托古改制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：-20%，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多多良锻造公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（迫击炮：对人员杀伤：+10%，步枪：对人员杀伤：+5%，对装甲杀伤：+5%，生产效率上限：+10%），多多良小伞成为将领}{人类和道具终于重归一体}（注：需要完成国策：诱敌来攻或先发制人且九十九工业不存在）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>加入妖怪山同盟{60天}{改良支持度变化：+5%，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天狗共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”人类村落请求加入妖怪山民主同盟”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。}{加入天狗的势力圈对我们也是好处多多}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技术爆炸{100天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>战争的政治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天狗共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）该国所拥民用工厂：+10%，政治点数：-500，增加2个科研槽}{科学技术是第一生产力，为此付出一些代价也在所不惜}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再看帝国{100天}{触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“我们的宿敌”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。}{斯卡雷特帝国曾让我们付出了血的代价，休养生息之后，我们应该重新决定对他们的策略了}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*借机发难{30天}{人类村落向斯卡雷特帝国宣战}{帝国大厦将倾，那么我们可以助其一臂之力}（注：需要斯卡雷特帝国处于战时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*休兵止戈{60天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幻想乡正统势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（政治点数：+20%，部队组织度：+10%，制造战争的紧张度限制：+20%，正当化战争目标所需时间：+25%），获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无为而治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（每周人力：+1，每月人力：+15%）}{人类复权已经过去，何必再在乎过去呢}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4088,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EBBA38-6A18-44E7-91CA-5981279DC2EF}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4284,12 +5112,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>7</v>
       </c>

--- a/国策/人类村落.xlsx
+++ b/国策/人类村落.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A765B6DB-0500-4237-B5A8-9A8DA34A2EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBF4F09-1C41-42FC-91DD-39F567639423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{93DAB45E-748C-48FC-94D4-11F23570B30F}"/>
+    <workbookView xWindow="8520" yWindow="1740" windowWidth="22170" windowHeight="17145" xr2:uid="{93DAB45E-748C-48FC-94D4-11F23570B30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5101,6 +5101,1125 @@
   </si>
   <si>
     <r>
+      <t>幻想乡的太阳{100天}{触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“光鲜亮丽的背后”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。稗田阿求获得“伟人”，其效果为（政治点数：+100%，稳定度：+100%，战争支持度：+100%）}{东方红，太阳升，幻想乡出了个大英雄}（注：需要九十九工业、斯卡雷特帝国、隙间世界不存在}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>审判财阀{30天}{触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“肉食者鄙”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。新人类村落向人类财阀联合宣战}{人类的资本家比妖怪更可怕，他们在暗处操纵人类的经济，人类复权的失败他们有不可推卸的责任}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>财产充公{60天}{（稗田县——人类赌场）增加5个建筑位，增加5个军用工厂，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类财阀资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（政治点数：-25%，生活消费品工厂：-20%）}{吊死财阀之后我们征用了他们的所有资产，但是否彻底和用于哪里一直备受质疑，有人甚至认为我们花了财阀的钱去买奢侈品供领导人使用……}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人类下克上主义{30天}{创建阵营：第二次人类复权运动，触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“下克上主义人类化”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类下克上主义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（部队组织度：+15%，投降界限：+5%，战争支持度：+10%，部队核心领土进攻：+5%，部队核心领土防御：+5%，征兵法案花费：-25%），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叛乱同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雾之湖妖精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意识形态斗争</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）我国对其进攻修正：+10%，我国对其防御修正：-10%）}{稗田阿求声称自己找到了独属于人类的革命方式，鬼人正邪等下克上的先行者皆认为这种行为是赤裸裸的剽窃和亵渎，但他们压根不了解人类的特殊国情，阿求的下克上主义才是最好的}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类革命的旗帜{30天}{全球紧张度：+10，政治点数：+500，创建阵营：人类下克上运动，开启革命/政治热情决议}{人类复权打响了幻想乡革命的第一枪，人类的下克上是幻想乡底层人民的赞歌}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*再寻新路{60天}{稗田人类复权派将被称作人类复权派，稗田阿礼（？）成为稗田人类复权派的领导人，开启内战（成为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）决议绕过九十九工业的制裁，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类复权的遗产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稗田阿求的遗产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，效果变更：每周稳定度：+0.5%，每周战争支持度：+0.5%，每日厌战值变化：-0.1%}{革命才不是新瓶装旧酒呢！这次复权是全新的、代表全人类意志的革命}（稗田阿礼（？）领导人特质“人类精神的象征”，其效果为（厌战上涨周期：+50%，适役人口：+8%，适役人口修正：80%））</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>荣归故里{30天}{获得对（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>香霖公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖怪小镇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联合使馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的傀儡战争目标}{虽然这次是属于全人类的复权，但其实一些妖怪如果经过改造也可以成为人类的革命同志的}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煽动革命{30天}{开启决议增加相邻国家激进党派的支持率}{为了保障我们的安全，必须让周边的国家都和我们保持一致}（注：需要处于和平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>强化专政{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世界革命的基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：稳定度：+20%，政治点数：+20%，激进倾向：+1}{正义的人类对不义的妖怪进行专权，或许和下克上的部分理念不符，但是这是为了保护多数人的利益}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>战争科学{100天}{增加1个科研槽，陆军经验：+100，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>政治顾问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（陆军学说花费：-25%）}{战争是一门科学，而我们的胜利是由于人类工人组成的纯粹军队，将二者有机结合起来人类将无往不利}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界革命的基地{60天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世界革命的基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（正当化战争目标时间：+50%，处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阵营加成：+200%，减少唯心度花费：-50%，不能宣战）}{下克上运动的其他国家都需要保护新人类村落的建设工作，因为只有那样人类才有更多的资本去帮助他们}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建成下克上社会{100天]{所有拥有的地区：添加3个建筑位，添加1个军用工厂，添加1个民用工厂，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世界革命的基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：可以宣战，移除革命/政治热情决议}{我们终于可以宣布自己建成了下克上社会，再不需要受资产阶级法权限制了}（注：需要新人类村落工业值超过100）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建设第五纵队{30天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处于战时每隔一段时间将会获得编制为扫荡编制的部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世界革命的基地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：正当化战争目标时间：-100%}{许多人都因为我们的成就而崇拜我们，当然也不乏投机分子，但谁会在意呢？}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>继续下克上论{60天}{触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“产生叛徒的原因”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雾之湖妖精联合体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意识形态支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+200），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叛乱同盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意识形态支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系+200），获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续下克上论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（厌战上涨周期：+50%，厌战值每日变化：+0.05）}{人类内部的敌人是持续存在的，所以我们需要一直对他们进行处理，下克上是一个好的导师}（注：需要处于和平）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人类夺厂{60天}{（触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“自己治厂？”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九十九工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工业区脱离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新人类村落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关系-100），获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类夺厂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（生产效率保持：+30%，生产效率上限：+30%，生产效率增长速度：+30%）}{和人类的投降派作战完毕后，曾经被技术官僚垄断的工厂现在交由人类工人使用}（注：需要人类村落不存在）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>威震天下{100天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强大的威望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（每日获得的政治点数：+0.25，部队组织度：+15%，稳定度：+20%，战争支持度：+20%，建造速度：+10%，部队攻击：+5%，部队防御：+5%，科研速度：+10%，工厂产出：+10%）}{王侯将相，宁有种乎？}（注：需要后户之国、妖兽仙界、隙间世界不存在）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对贤者之位的觊觎{100天}{获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幻想乡建立者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（每日获得的政治点数：+0.5，每周人力：+3，生活消费品工厂：-10%，稳定度：+10%，地区最大工业值：+30%，建造速度：+25%，工厂产出：25%，制作战争目标的紧张度限制：+15%，特工位：+2，每日人类影响力额外变化：+0.02，x可以加入阵营灵力系科研速度：+35%，混合类研究速度：+10%，秘密武器类研究速度：-60%），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有贤者都会在未来对你宣战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{人类现在什么也不缺，但还缺一些虚名，我们想幻想乡能容忍多一位贤者的出现吧}（注：需要势力规模为世界）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>万众一心{55天}{（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雾雨流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竹林流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草原流亡者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）触发事件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“人类村落的号召”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果他们同意，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成为人类村落的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合作势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人类复权运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其效果为（部队攻击：+25%，部队防御：+25%）}{人类复权运动卷土重来，是流亡者们履行承诺的时候了}（注：需要意识形态为激进，如果流亡者拥有外交中立民族精神会被直接吞并）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>转移博丽巫女60天}{（</t>
     </r>
     <r>
@@ -5167,1126 +6286,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>博丽灵梦成为将领}{贤者的旧账我们可以既往不咎，但是博丽灵梦作为人类复权运动的英雄需要回归人类的怀抱}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>幻想乡的太阳{100天}{触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“光鲜亮丽的背后”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。稗田阿求获得“伟人”，其效果为（政治点数：+100%，稳定度：+100%，战争支持度：+100%）}{东方红，太阳升，幻想乡出了个大英雄}（注：需要九十九工业、斯卡雷特帝国、隙间世界不存在}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审判财阀{30天}{触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“肉食者鄙”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。新人类村落向人类财阀联合宣战}{人类的资本家比妖怪更可怕，他们在暗处操纵人类的经济，人类复权的失败他们有不可推卸的责任}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>财产充公{60天}{（稗田县——人类赌场）增加5个建筑位，增加5个军用工厂，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类财阀资产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（政治点数：-25%，生活消费品工厂：-20%）}{吊死财阀之后我们征用了他们的所有资产，但是否彻底和用于哪里一直备受质疑，有人甚至认为我们花了财阀的钱去买奢侈品供领导人使用……}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>人类下克上主义{30天}{创建阵营：第二次人类复权运动，触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“下克上主义人类化”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类下克上主义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（部队组织度：+15%，投降界限：+5%，战争支持度：+10%，部队核心领土进攻：+5%，部队核心领土防御：+5%，征兵法案花费：-25%），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>叛乱同盟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）、（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雾之湖妖精</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>意识形态斗争</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类村落</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）我国对其进攻修正：+10%，我国对其防御修正：-10%）}{稗田阿求声称自己找到了独属于人类的革命方式，鬼人正邪等下克上的先行者皆认为这种行为是赤裸裸的剽窃和亵渎，但他们压根不了解人类的特殊国情，阿求的下克上主义才是最好的}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类革命的旗帜{30天}{全球紧张度：+10，政治点数：+500，创建阵营：人类下克上运动，开启革命/政治热情决议}{人类复权打响了幻想乡革命的第一枪，人类的下克上是幻想乡底层人民的赞歌}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*再寻新路{60天}{稗田人类复权派将被称作人类复权派，稗田阿礼（？）成为稗田人类复权派的领导人，开启内战（成为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新人类村落</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）决议绕过九十九工业的制裁，以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类复权的遗产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>稗田阿求的遗产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，效果变更：每周稳定度：+0.5%，每周战争支持度：+0.5%，每日厌战值变化：-0.1%}{革命才不是新瓶装旧酒呢！这次复权是全新的、代表全人类意志的革命}（稗田阿礼（？）领导人特质“人类精神的象征”，其效果为（厌战上涨周期：+50%，适役人口：+8%，适役人口修正：80%））</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>荣归故里{30天}{获得对（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>香霖公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）、（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>妖怪小镇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）、（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>联合使馆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）的傀儡战争目标}{虽然这次是属于全人类的复权，但其实一些妖怪如果经过改造也可以成为人类的革命同志的}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煽动革命{30天}{开启决议增加相邻国家激进党派的支持率}{为了保障我们的安全，必须让周边的国家都和我们保持一致}（注：需要处于和平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>强化专政{60天}{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世界革命的基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>追加效果：稳定度：+20%，政治点数：+20%，激进倾向：+1}{正义的人类对不义的妖怪进行专权，或许和下克上的部分理念不符，但是这是为了保护多数人的利益}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>战争科学{100天}{增加1个科研槽，陆军经验：+100，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>政治顾问</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（陆军学说花费：-25%）}{战争是一门科学，而我们的胜利是由于人类工人组成的纯粹军队，将二者有机结合起来人类将无往不利}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>世界革命的基地{60天}{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世界革命的基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（正当化战争目标时间：+50%，处于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阵营加成：+200%，减少唯心度花费：-50%，不能宣战）}{下克上运动的其他国家都需要保护新人类村落的建设工作，因为只有那样人类才有更多的资本去帮助他们}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>建成下克上社会{100天]{所有拥有的地区：添加3个建筑位，添加1个军用工厂，添加1个民用工厂，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世界革命的基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>追加效果：可以宣战，移除革命/政治热情决议}{我们终于可以宣布自己建成了下克上社会，再不需要受资产阶级法权限制了}（注：需要新人类村落工业值超过100）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>建设第五纵队{30天}{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>处于战时每隔一段时间将会获得编制为扫荡编制的部队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世界革命的基地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>追加效果：正当化战争目标时间：-100%}{许多人都因为我们的成就而崇拜我们，当然也不乏投机分子，但谁会在意呢？}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>继续下克上论{60天}{触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“产生叛徒的原因”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雾之湖妖精联合体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>意识形态支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新人类村落</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的关系+200），（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>叛乱同盟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>意识形态支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新人类村落</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的关系+200），获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>继续下克上论</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（厌战上涨周期：+50%，厌战值每日变化：+0.05）}{人类内部的敌人是持续存在的，所以我们需要一直对他们进行处理，下克上是一个好的导师}（注：需要处于和平）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>人类夺厂{60天}{（触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“自己治厂？”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>九十九工业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工业区脱离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新人类村落</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的关系-100），获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类夺厂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（生产效率保持：+30%，生产效率上限：+30%，生产效率增长速度：+30%）}{和人类的投降派作战完毕后，曾经被技术官僚垄断的工厂现在交由人类工人使用}（注：需要人类村落不存在）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>威震天下{100天}{获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>强大的威望</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（每日获得的政治点数：+0.25，部队组织度：+15%，稳定度：+20%，战争支持度：+20%，建造速度：+10%，部队攻击：+5%，部队防御：+5%，科研速度：+10%，工厂产出：+10%）}{王侯将相，宁有种乎？}（注：需要后户之国、妖兽仙界、隙间世界不存在）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>对贤者之位的觊觎{100天}{获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>幻想乡建立者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（每日获得的政治点数：+0.5，每周人力：+3，生活消费品工厂：-10%，稳定度：+10%，地区最大工业值：+30%，建造速度：+25%，工厂产出：25%，制作战争目标的紧张度限制：+15%，特工位：+2，每日人类影响力额外变化：+0.02，x可以加入阵营灵力系科研速度：+35%，混合类研究速度：+10%，秘密武器类研究速度：-60%），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所有贤者都会在未来对你宣战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}{人类现在什么也不缺，但还缺一些虚名，我们想幻想乡能容忍多一位贤者的出现吧}（注：需要势力规模为世界）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>万众一心{55天}{（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雾雨流亡者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>竹林流亡者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>草原流亡者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）触发事件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“人类村落的号召”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果他们同意，则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成为人类村落的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合作势力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人类复权运动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其效果为（部队攻击：+25%，部队防御：+25%）}{人类复权运动卷土重来，是流亡者们履行承诺的时候了}（注：需要意识形态为激进，如果流亡者拥有外交中立民族精神会被直接吞并）</t>
+      <t>博丽灵梦成为将领}{贤者的旧账我们可以既往不咎，但是博丽灵梦作为人类复权运动的英雄需要回归人类的怀抱}（注：需要博丽神社不存在）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6701,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EBBA38-6A18-44E7-91CA-5981279DC2EF}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.2">
@@ -7049,67 +7049,67 @@
     </row>
     <row r="69" spans="4:19" x14ac:dyDescent="0.2">
       <c r="R69" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="4:19" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="4:19" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="4:19" x14ac:dyDescent="0.2">
       <c r="J77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="4:19" x14ac:dyDescent="0.2">
       <c r="K78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="4:19" x14ac:dyDescent="0.2">
       <c r="M80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -7124,27 +7124,27 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="R85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
